--- a/output/StructureDefinition-cbs-exposure-observation.xlsx
+++ b/output/StructureDefinition-cbs-exposure-observation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="430">
   <si>
     <t>Path</t>
   </si>
@@ -1332,56 +1332,63 @@
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
   </si>
   <si>
-    <t>imported-country</t>
+    <t>Country-of-Exposure</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;code value="country"/&gt;
+    &lt;system value="http://loinc.org/"/&gt;
+    &lt;code value="77984-3"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://phinvads.cdc.gov/vads/ViewValueSet.action?oid=2.16.840.1.114222.4.11.828</t>
-  </si>
-  <si>
-    <t>imported-state</t>
+    <t>PHIN VADS Country Codes</t>
+  </si>
+  <si>
+    <t>https://phinvads.cdc.gov/vads/ViewValueSet.action?id=8628EEFE-2F6A-4BC1-BBEB-609153F92CF7</t>
+  </si>
+  <si>
+    <t>State-or-Province-of-Exposure</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;code value="state"/&gt;
+    &lt;system value="http://loinc.org/"/&gt;
+    &lt;code value="77985-0"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://phinvads.cdc.gov/vads/ViewValueSet.action?oid=2.16.840.1.114222.4.11.830</t>
-  </si>
-  <si>
-    <t>imported-city</t>
+    <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.830</t>
+  </si>
+  <si>
+    <t>City-of-Exposure</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;code value="city"/&gt;
+    &lt;system value="http://loinc.org/"/&gt;
+    &lt;code value="77986-8"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://phinvads.cdc.gov/vads/ViewValueSet.action?oid=2.16.840.1.114222.4.11.973</t>
-  </si>
-  <si>
-    <t>imported-county</t>
+    <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.973</t>
+  </si>
+  <si>
+    <t>County-of-Exposure</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;code value="county"/&gt;
+    &lt;system value="http://loinc.org/"/&gt;
+    &lt;code value="77987-6"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://phinvads.cdc.gov/vads/ViewValueSet.action?oid=2.16.840.1.114222.4.11.829</t>
+    <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.829</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1547,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.3125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.0625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1563,7 +1570,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="61.72265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.49609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="91.09375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="39.640625" customWidth="true" bestFit="true"/>
@@ -3478,7 +3485,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>55</v>
@@ -3597,7 +3604,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>55</v>
@@ -8365,9 +8372,11 @@
       <c r="W58" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="X58" s="2"/>
+      <c r="X58" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8780,7 +8789,7 @@
         <v>386</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>45</v>
@@ -9294,7 +9303,7 @@
         <v>45</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>45</v>
@@ -9432,7 +9441,7 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9845,7 +9854,7 @@
         <v>386</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>45</v>
@@ -10359,7 +10368,7 @@
         <v>45</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>45</v>
@@ -10497,7 +10506,7 @@
       </c>
       <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>45</v>
@@ -10910,7 +10919,7 @@
         <v>386</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>45</v>
@@ -11424,7 +11433,7 @@
         <v>45</v>
       </c>
       <c r="R84" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>45</v>
@@ -11562,7 +11571,7 @@
       </c>
       <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>45</v>

--- a/output/StructureDefinition-cbs-exposure-observation.xlsx
+++ b/output/StructureDefinition-cbs-exposure-observation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="429">
   <si>
     <t>Path</t>
   </si>
@@ -548,9 +548,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org/"/&gt;
-    &lt;code value="77982-7"/&gt;
-    &lt;display value="Case disease imported code"/&gt;
+    &lt;system value="http://cbsig.chai.gatech.edu/output/CodeSystem/cbs-temp-code-system"/&gt;
+    &lt;code value="Location-of-Exposure"/&gt;
+    &lt;display value="Temporary code for Location of Exposure"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -589,7 +589,7 @@
 </t>
   </si>
   <si>
-    <t>Who and/or what the observation is about</t>
+    <t>The reference to the subject (the patient)</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
@@ -620,7 +620,7 @@
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
+    <t>The reference to the condition of interest</t>
   </si>
   <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
@@ -1341,9 +1341,6 @@
     &lt;code value="77984-3"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>PHIN VADS Country Codes</t>
   </si>
   <si>
     <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.828</t>
@@ -1556,7 +1553,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.69140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -8372,11 +8369,9 @@
       <c r="W58" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="X58" t="s" s="2">
+      <c r="X58" s="2"/>
+      <c r="Y58" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8789,7 +8784,7 @@
         <v>386</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>45</v>
@@ -9303,7 +9298,7 @@
         <v>45</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>45</v>
@@ -9437,11 +9432,11 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9854,7 +9849,7 @@
         <v>386</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>45</v>
@@ -10368,7 +10363,7 @@
         <v>45</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>45</v>
@@ -10502,11 +10497,11 @@
         <v>45</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>45</v>
@@ -10919,7 +10914,7 @@
         <v>386</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>45</v>
@@ -11433,7 +11428,7 @@
         <v>45</v>
       </c>
       <c r="R84" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>45</v>
@@ -11567,11 +11562,11 @@
         <v>45</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>45</v>

--- a/output/StructureDefinition-cbs-exposure-observation.xlsx
+++ b/output/StructureDefinition-cbs-exposure-observation.xlsx
@@ -1337,7 +1337,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org/"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
     &lt;code value="77984-3"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1351,7 +1351,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org/"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
     &lt;code value="77985-0"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1365,7 +1365,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org/"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
     &lt;code value="77986-8"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1379,7 +1379,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org/"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
     &lt;code value="77987-6"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
